--- a/CoralPOS2/Design/POS Specification 0.2.xlsx
+++ b/CoralPOS2/Design/POS Specification 0.2.xlsx
@@ -4,36 +4,65 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="127" yWindow="71" windowWidth="19101" windowHeight="11068" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Kiến trúc framework" sheetId="1" r:id="rId1"/>
-    <sheet name="Cụ thể hóa Framework" sheetId="2" r:id="rId2"/>
+    <sheet name="Cụ thể hóa Framework ( NF)" sheetId="2" r:id="rId2"/>
     <sheet name="POS -  Tổng quan" sheetId="3" r:id="rId3"/>
     <sheet name="POS -  Mô hình" sheetId="4" r:id="rId4"/>
     <sheet name="POS - Product Master" sheetId="5" r:id="rId5"/>
+    <sheet name="POS - STOCKIN" sheetId="6" r:id="rId6"/>
+    <sheet name="POS - STOCKTODEPT" sheetId="7" r:id="rId7"/>
+    <sheet name="POS - STOCKOUT" sheetId="10" r:id="rId8"/>
+    <sheet name="POS - DEPTSTOCKOUT" sheetId="8" r:id="rId9"/>
+    <sheet name="POS-DEPTSYNC" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Diễn giải</t>
+  </si>
+  <si>
+    <t>Đường đi từ kho vung đến cửa hàng</t>
+  </si>
+  <si>
+    <t>Đường đi từ kho chính đến kho vùng</t>
+  </si>
+  <si>
+    <t>Kho chính có thể phân phối thẳng cho cua hàng ( adhoc )</t>
+  </si>
+  <si>
+    <t>Kho vung</t>
+  </si>
+  <si>
+    <t>Cua hang</t>
+  </si>
+  <si>
+    <t>May chu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,7 +147,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="3600"/>
-            <a:t>WINFORM</a:t>
+            <a:t>WPF</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -129,13 +159,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>161365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>132790</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -144,8 +174,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3038475" y="723900"/>
-          <a:ext cx="2809875" cy="3971925"/>
+          <a:off x="3181910" y="726141"/>
+          <a:ext cx="2989169" cy="3924861"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -172,8 +202,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="3200"/>
-            <a:t>SPRING.NET + EVENT PROGRAMMING</a:t>
+            <a:t>CALIBURN</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" baseline="0"/>
+            <a:t> + SPRING.NET + MEF</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="3200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -227,8 +262,17 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="4400"/>
-            <a:t>SPRING.NET</a:t>
+            <a:t>SPRING.NET +</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2200" baseline="0"/>
+            <a:t>WINDOWS WORKFLOW FOUDATION</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -707,8 +751,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>EVENT</a:t>
+            <a:t>FUNC</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> CALL</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -734,8 +783,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6448424" y="2867024"/>
-          <a:ext cx="923925" cy="923925"/>
+          <a:off x="6807012" y="2833406"/>
+          <a:ext cx="995643" cy="914961"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -759,11 +808,36 @@
         <a:bodyPr rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>EVENT</a:t>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FUNC</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> CALL</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1262,7 +1336,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1051955" cy="264560"/>
+    <xdr:ext cx="803938" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="TextBox 23"/>
@@ -1270,8 +1344,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2247900" y="781050"/>
-          <a:ext cx="1051955" cy="264560"/>
+          <a:off x="2355476" y="772085"/>
+          <a:ext cx="803938" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1300,7 +1374,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Winform</a:t>
+            <a:t>WPF</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -1570,11 +1644,36 @@
         <a:bodyPr rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>EVENT</a:t>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FUNC</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> CALL</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2716,6 +2815,62 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>398369</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>265019</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Flowchart: Alternate Process 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685068" y="2430490"/>
+          <a:ext cx="1796698" cy="1034270"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1"/>
+            <a:t>Kho Vung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -2778,16 +2933,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>14600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>150357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>524599</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45582</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2796,8 +2951,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2085975" y="361950"/>
-          <a:ext cx="1695450" cy="1038225"/>
+          <a:off x="14600" y="719879"/>
+          <a:ext cx="1796698" cy="1034270"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -2833,16 +2988,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22049</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>12920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>532048</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>98645</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2851,25 +3006,25 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7286625" y="1219200"/>
-          <a:ext cx="1695450" cy="1038225"/>
+          <a:off x="7742243" y="1151965"/>
+          <a:ext cx="1796698" cy="1034929"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2879,7 +3034,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="2400" b="1"/>
-            <a:t>Kho Phụ</a:t>
+            <a:t>Kho Vung</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2888,71 +3043,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Flowchart: Alternate Process 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1438275" y="2247900"/>
-          <a:ext cx="1695450" cy="1038225"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartAlternateProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1"/>
-            <a:t>Kho Phụ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>632803</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>465703</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2961,8 +3061,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7315200" y="3352800"/>
-          <a:ext cx="1695450" cy="1038225"/>
+          <a:off x="10283045" y="4290798"/>
+          <a:ext cx="1762949" cy="1034270"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -2998,16 +3098,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>307535</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>20402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>174185</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>105468</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3016,8 +3116,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2009775" y="4486275"/>
-          <a:ext cx="1695450" cy="1038225"/>
+          <a:off x="307535" y="4576582"/>
+          <a:ext cx="1796698" cy="1034270"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -3054,15 +3154,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>540744</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85426</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>176568</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>62985</xdr:rowOff>
+      <xdr:colOff>580068</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>32692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>398047</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3070,169 +3170,16 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="2494213">
-          <a:off x="2979144" y="1609426"/>
-          <a:ext cx="2074224" cy="549059"/>
+        <a:xfrm rot="10800000">
+          <a:off x="3153466" y="2690464"/>
+          <a:ext cx="1748027" cy="547081"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>541325</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>480784</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66678</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Left-Right Arrow 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2092203" y="1525697"/>
-          <a:ext cx="1104903" cy="549059"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>322249</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>261708</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Left-Right Arrow 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="1696916" y="3606908"/>
-          <a:ext cx="1457325" cy="549059"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>509218</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9258</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>597469</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>177317</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Left-Right Arrow 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="19360064">
-          <a:off x="2947618" y="3819258"/>
-          <a:ext cx="1917051" cy="549059"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightArrow">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -3313,6 +3260,61 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>26795</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>112586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>536794</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>8470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Flowchart: Alternate Process 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7746989" y="3529721"/>
+          <a:ext cx="1796698" cy="1034929"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1"/>
+            <a:t>Kho Vung</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>391555</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -3365,40 +3367,150 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>522274</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>637549</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>470449</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Flowchart: Alternate Process 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287791" y="2924472"/>
+          <a:ext cx="1762949" cy="1034270"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1"/>
+            <a:t>Cửa hàng</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>621201</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>18324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>454101</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>461733</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Left-Right Arrow 15"/>
+      <xdr:rowOff>103391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Flowchart: Alternate Process 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7397629" y="2478195"/>
-          <a:ext cx="1428750" cy="549059"/>
+        <a:xfrm>
+          <a:off x="10271443" y="967529"/>
+          <a:ext cx="1762949" cy="1034270"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1"/>
+            <a:t>Cửa hàng</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142380</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>58007</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142380</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Left-Right Arrow 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2856411">
+          <a:off x="980844" y="1792941"/>
+          <a:ext cx="1455446" cy="558976"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -3417,359 +3529,407 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200388</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>42188</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>168747</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Left-Right Arrow 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18536945">
+          <a:off x="864831" y="3807363"/>
+          <a:ext cx="1729661" cy="485149"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>242574</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>158200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68027</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Left-Right Arrow 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9249467" y="1291445"/>
+          <a:ext cx="1202325" cy="485149"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>232027</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>168747</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>126560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Left-Right Arrow 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20140226">
+          <a:off x="9238920" y="3469868"/>
+          <a:ext cx="1223419" cy="453508"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>226226</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>120759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162946</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4745</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Left-Right Arrow 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1947350">
+          <a:off x="9233119" y="4297258"/>
+          <a:ext cx="1223419" cy="453508"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>119935</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>169954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>236631</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147512</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Left-Right Arrow 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20682627">
+          <a:off x="6553430" y="2258203"/>
+          <a:ext cx="3976793" cy="547081"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>485149</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>116014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Cube 17"/>
+      <xdr:colOff>611710</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>126560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Left-Right Arrow 33"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3600450" y="3076575"/>
-          <a:ext cx="295275" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vert="vert270" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>USB</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Cube 18"/>
+          <a:off x="3701896" y="5051875"/>
+          <a:ext cx="769910" cy="390229"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>489895</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>110213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>616456</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>120760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Left-Right Arrow 34"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4295775" y="962025"/>
-          <a:ext cx="295275" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vert="vert270" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>USB</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Cube 19"/>
+          <a:off x="3706642" y="5805438"/>
+          <a:ext cx="769910" cy="390229"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>491765</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>79483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>618326</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>90031</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Left-Right Arrow 35"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6305550" y="3876675"/>
-          <a:ext cx="295275" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vert="vert270" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>USB</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Cube 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6372225" y="1095375"/>
-          <a:ext cx="295275" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vert="vert270" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>USB</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Trapezoid 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1390650" y="1600200"/>
-          <a:ext cx="781050" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="trapezoid">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:off x="3708512" y="6534071"/>
+          <a:ext cx="769910" cy="390229"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3777,120 +3937,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>WS</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Trapezoid 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="3676650"/>
-          <a:ext cx="781050" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="trapezoid">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>WS</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Trapezoid 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8286750" y="2562225"/>
-          <a:ext cx="781050" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="trapezoid">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>WS</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3903,16 +3950,172 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>573742</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2510118" y="3074894"/>
+          <a:ext cx="1577788" cy="2061882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>188259</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2626659" y="860612"/>
+          <a:ext cx="1434353" cy="2026023"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>484094</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>277906</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5647765" y="878541"/>
+          <a:ext cx="1730188" cy="3334871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>155202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>43143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3923,8 +4126,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5324475" y="2143125"/>
-          <a:ext cx="666750" cy="1409700"/>
+          <a:off x="4661088" y="719978"/>
+          <a:ext cx="702608" cy="1394012"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4824,15 +5027,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>109257</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>29135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>166407</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>105335</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4843,8 +5046,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4600575" y="4038600"/>
-          <a:ext cx="666750" cy="1409700"/>
+          <a:off x="4627469" y="3794311"/>
+          <a:ext cx="702609" cy="1394012"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5033,6 +5236,3760 @@
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>170330</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>107577</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Cloud Callout 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752165" y="1362635"/>
+          <a:ext cx="1228165" cy="645459"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloudCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>WEB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161365</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Cloud Callout 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="3989294"/>
+          <a:ext cx="1228165" cy="645459"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloudCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>WEB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>555811</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Cloud Callout 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5719482" y="1649506"/>
+          <a:ext cx="1470212" cy="968188"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloudCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>WEB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>98611</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4097" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7844117" y="1559859"/>
+          <a:ext cx="1891553" cy="1891553"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>493058</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4098" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6347012" y="2925794"/>
+          <a:ext cx="600634" cy="606300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>430303</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3164540" y="2272386"/>
+          <a:ext cx="493057" cy="497708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>636494</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>484092</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3218329" y="3150927"/>
+          <a:ext cx="493057" cy="497708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>277906</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>58270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>98611</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4097" idx="1"/>
+          <a:endCxn id="14" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7377953" y="2505635"/>
+          <a:ext cx="466164" cy="40341"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>153965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>484095</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98613</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="1"/>
+          <a:endCxn id="2049" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5363697" y="1471777"/>
+          <a:ext cx="284069" cy="1074201"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>460563</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>484095</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>29135</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="1"/>
+          <a:endCxn id="26" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4978775" y="2545977"/>
+          <a:ext cx="668991" cy="1248334"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>188259</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>146155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2049" idx="9"/>
+          <a:endCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4061012" y="1463967"/>
+          <a:ext cx="600076" cy="409657"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>109257</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>20088</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="9"/>
+          <a:endCxn id="16" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4087906" y="4105835"/>
+          <a:ext cx="539563" cy="432465"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331403</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>77181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="11"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2267779" y="1394993"/>
+          <a:ext cx="412668" cy="30395"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>262520</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>113005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>573742</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2050" idx="11"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2198896" y="2936887"/>
+          <a:ext cx="311222" cy="1168948"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>262520</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>573742</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19995</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="11"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2198896" y="4105835"/>
+          <a:ext cx="311222" cy="244113"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="564777"/>
+          <a:ext cx="1837765" cy="869577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>NHAP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> THONG TIN MAT HANG</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>564776</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3890682" y="582707"/>
+          <a:ext cx="1837765" cy="869577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>DIEU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> CHINH GIA</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>636494</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>125508</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6445623" y="573743"/>
+          <a:ext cx="1837765" cy="869577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>LUU</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>510989</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Right Arrow 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3092824" y="959224"/>
+          <a:ext cx="887505" cy="233082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>493058</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>71718</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Right Arrow 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5656729" y="977153"/>
+          <a:ext cx="869577" cy="215153"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>188258</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1479176" y="618565"/>
+          <a:ext cx="1927412" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>NHAP MAT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> HANG VA SO LUONG</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>263143</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254177</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4766589" y="4024099"/>
+          <a:ext cx="1921083" cy="922309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CHINH SUA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>259976</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>251012</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4778188" y="618564"/>
+          <a:ext cx="1927412" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LUU TAM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>215152</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>206188</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7960658" y="1631577"/>
+          <a:ext cx="1927412" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>XAC NHAN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>259976</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Elbow Connector 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3406588" y="1075764"/>
+          <a:ext cx="1371600" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>577171</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>26892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>580337</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Elbow Connector 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4486309" y="2783276"/>
+          <a:ext cx="2478479" cy="3166"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>251012</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>215152</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Elbow Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="1075764"/>
+          <a:ext cx="1255058" cy="1013013"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422396</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>413431</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>21094</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1709095" y="2895601"/>
+          <a:ext cx="1921083" cy="922309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CHINH SUA GIA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> NHAP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>96240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>577171</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47988</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Elbow Connector 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="0"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3521811" y="693447"/>
+          <a:ext cx="1349981" cy="3054328"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>170329</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161364</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9852211" y="618565"/>
+          <a:ext cx="1927412" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LUU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> VAO CSDL</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>206188</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488576</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Shape 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="22" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9888070" y="1532965"/>
+          <a:ext cx="927847" cy="555812"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>251012</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>170329</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Elbow Connector 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="1075764"/>
+          <a:ext cx="3146611" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>569524</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>126560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>274216</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>84374</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Oval 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1212873" y="885924"/>
+          <a:ext cx="348042" cy="337495"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>78575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>141853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>426617</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Oval 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9728817" y="901217"/>
+          <a:ext cx="348042" cy="337495"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>178240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9494</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>136053</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Oval 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10598393" y="1317285"/>
+          <a:ext cx="348042" cy="337495"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>14768</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>116014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5802</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>89120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9665010" y="2963627"/>
+          <a:ext cx="1921083" cy="922309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>HUY BO DON HANG NHAP</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>577169</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>14767</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Shape 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6754906" y="514678"/>
+          <a:ext cx="1879162" cy="3941045"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>468802</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>173495</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>173493</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Oval 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9475695" y="3253133"/>
+          <a:ext cx="348042" cy="337495"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>51226</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>51227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41058</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1331899" y="1203833"/>
+          <a:ext cx="1910839" cy="937678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>NHAP MAT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> HANG VA SO LUONG, NOI DEN</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>111346</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>96052</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>125956</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4614792" y="4511281"/>
+          <a:ext cx="1914755" cy="930219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CHINH SUA SO LUONG VA NOI DEN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>112397</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>51226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>97106</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4594750" y="1203832"/>
+          <a:ext cx="1905717" cy="937678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LUU TAM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57027</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>130856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>46859</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7741061" y="2243965"/>
+          <a:ext cx="1910839" cy="941521"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>XAC NHAN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41058</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>135073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>112397</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>135074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Elbow Connector 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3242738" y="1671880"/>
+          <a:ext cx="1352012" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>425376</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426428</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144941</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Elbow Connector 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4375381" y="3313439"/>
+          <a:ext cx="2394631" cy="1052"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>97106</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>135073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57027</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>24184</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Elbow Connector 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6500467" y="1671880"/>
+          <a:ext cx="1240594" cy="1041715"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>51227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>636042</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9616041" y="1203833"/>
+          <a:ext cx="1905715" cy="937678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LUU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> VAO CSDL</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>46859</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>322013</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>24184</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Shape 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9651900" y="2141511"/>
+          <a:ext cx="915492" cy="572084"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>97106</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>135073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>135074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Elbow Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6500467" y="1671880"/>
+          <a:ext cx="3115574" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>10624</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>128594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638680</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109608</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9660866" y="4494933"/>
+          <a:ext cx="1914755" cy="930219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>HUY DON HANG XUAT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426428</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>324653</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>128593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Elbow Connector 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6906592" y="783280"/>
+          <a:ext cx="2378283" cy="5045022"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>453509</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>168747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>158201</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>126561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Oval 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1096858" y="1497633"/>
+          <a:ext cx="348042" cy="337495"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>479348</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>184041</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>110213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Oval 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9486241" y="1481285"/>
+          <a:ext cx="348042" cy="337495"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>167693</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>136051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>515735</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>93865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Oval 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10461285" y="4312550"/>
+          <a:ext cx="348042" cy="337495"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104412</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>20038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>452454</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167692</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Oval 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10398004" y="1918446"/>
+          <a:ext cx="348042" cy="337495"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>51226</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>51227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41058</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1342144" y="1180780"/>
+          <a:ext cx="1926208" cy="918469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>NHAP MAT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> HANG VA SO LUONG, LY DO XUAT</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>111346</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>96052</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>125956</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629558" y="4474895"/>
+          <a:ext cx="1921082" cy="922308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CHINH SUA SO LUONG VA LY DO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> XUAT</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>112397</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>51226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>97106</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4615843" y="1190271"/>
+          <a:ext cx="1914758" cy="926379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LUU TAM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57027</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>130856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>46859</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7777221" y="2219105"/>
+          <a:ext cx="1919880" cy="930221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>XAC NHAN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41058</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>135073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>112397</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>135074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Elbow Connector 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3268352" y="1641144"/>
+          <a:ext cx="1362257" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>425376</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426428</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144941</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Elbow Connector 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4401749" y="3286545"/>
+          <a:ext cx="2375647" cy="1052"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>97106</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>135073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57027</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>24184</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Elbow Connector 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6551694" y="1641144"/>
+          <a:ext cx="1250839" cy="1018664"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>51227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>636042</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9661242" y="1190272"/>
+          <a:ext cx="1911741" cy="926379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LUU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> VAO CSDL</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>46859</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>322013</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>24184</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Shape 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9728741" y="2099249"/>
+          <a:ext cx="920613" cy="560559"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>97106</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>135073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>135074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Elbow Connector 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6551694" y="1641144"/>
+          <a:ext cx="3141188" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>10624</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>128594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638680</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109608</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9692506" y="4458547"/>
+          <a:ext cx="1918974" cy="922308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>HUY DON HANG XUAT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426428</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>324653</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>128593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Elbow Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6941397" y="747949"/>
+          <a:ext cx="2359299" cy="5061895"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>456221</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>115562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160913</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>73376</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Oval 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1099570" y="1444448"/>
+          <a:ext cx="348042" cy="337495"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>545340</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>173041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>250033</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>130855</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Oval 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9552233" y="1501927"/>
+          <a:ext cx="348042" cy="337495"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>128217</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>146148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476259</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103961</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Oval 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10421809" y="1854715"/>
+          <a:ext cx="348042" cy="337495"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>143510</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>45426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>491552</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3239</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Oval 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10437102" y="4411765"/>
+          <a:ext cx="348042" cy="337495"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -5326,14 +9283,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.85"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5342,10 +9313,10 @@
   <dimension ref="B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.85"/>
   <sheetData>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
@@ -5360,14 +9331,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="H28:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetData>
+    <row r="28" spans="8:8">
+      <c r="H28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5375,14 +9362,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C3:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetData>
+    <row r="3" spans="3:8">
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14">
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5392,9 +9408,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.55"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.85"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
